--- a/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
@@ -473,139 +473,139 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B2" t="n">
-        <v>152.2531459950265</v>
+        <v>199.2006802089686</v>
       </c>
       <c r="C2" t="n">
-        <v>57.65501184237954</v>
+        <v>107.0092772612944</v>
       </c>
       <c r="D2" t="n">
-        <v>245.1311126627639</v>
+        <v>290.5229758357647</v>
       </c>
       <c r="E2" t="n">
         <v>120</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
       <c r="B3" t="n">
-        <v>137.9295412827503</v>
+        <v>152.2349973511566</v>
       </c>
       <c r="C3" t="n">
-        <v>40.22047602684622</v>
+        <v>58.36829448295828</v>
       </c>
       <c r="D3" t="n">
-        <v>230.811217724529</v>
+        <v>249.7522758732809</v>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
       <c r="B4" t="n">
-        <v>157.3907332773577</v>
+        <v>135.557688764359</v>
       </c>
       <c r="C4" t="n">
-        <v>63.82478234066127</v>
+        <v>45.87753045424903</v>
       </c>
       <c r="D4" t="n">
-        <v>244.4541639391579</v>
+        <v>227.2306292133667</v>
       </c>
       <c r="E4" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44845</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>174.6670293909763</v>
+        <v>155.8500558403238</v>
       </c>
       <c r="C5" t="n">
-        <v>86.93016412024062</v>
+        <v>66.50964206525401</v>
       </c>
       <c r="D5" t="n">
-        <v>263.4174388027152</v>
+        <v>248.1996155339872</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B6" t="n">
-        <v>80.62045591917288</v>
+        <v>175.5262364127123</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.36601241243936</v>
+        <v>83.42093037470396</v>
       </c>
       <c r="D6" t="n">
-        <v>176.1324930938691</v>
+        <v>263.1734308244828</v>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B7" t="n">
-        <v>44.9428428402838</v>
+        <v>96.49083309396751</v>
       </c>
       <c r="C7" t="n">
-        <v>-42.26799583094216</v>
+        <v>3.438679098677611</v>
       </c>
       <c r="D7" t="n">
-        <v>135.5848328107324</v>
+        <v>187.9565195767723</v>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B8" t="n">
-        <v>150.4381281830641</v>
+        <v>56.33213303354399</v>
       </c>
       <c r="C8" t="n">
-        <v>55.45121241508208</v>
+        <v>-31.35676091018383</v>
       </c>
       <c r="D8" t="n">
-        <v>234.9749319966692</v>
+        <v>146.3798994477676</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44866</v>
@@ -613,79 +613,79 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>176.2369210667965</v>
+        <v>152.5345023984078</v>
       </c>
       <c r="C9" t="n">
-        <v>79.39352353609702</v>
+        <v>50.86043921036779</v>
       </c>
       <c r="D9" t="n">
-        <v>271.9761735231392</v>
+        <v>242.3467257605553</v>
       </c>
       <c r="E9" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B10" t="n">
-        <v>203.5132358812421</v>
+        <v>171.3333042323013</v>
       </c>
       <c r="C10" t="n">
-        <v>109.768379773526</v>
+        <v>79.9346997568387</v>
       </c>
       <c r="D10" t="n">
-        <v>299.0894527953818</v>
+        <v>262.7556396617694</v>
       </c>
       <c r="E10" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B11" t="n">
-        <v>110.8434645600161</v>
+        <v>192.3399740454338</v>
       </c>
       <c r="C11" t="n">
-        <v>20.03416247068339</v>
+        <v>105.0691477281589</v>
       </c>
       <c r="D11" t="n">
-        <v>195.8886997555213</v>
+        <v>285.9759679381141</v>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B12" t="n">
-        <v>216.8479801155558</v>
+        <v>101.2387500050572</v>
       </c>
       <c r="C12" t="n">
-        <v>123.8229818323961</v>
+        <v>9.911035955953855</v>
       </c>
       <c r="D12" t="n">
-        <v>317.8095814478776</v>
+        <v>190.4996617788387</v>
       </c>
       <c r="E12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44894</v>
@@ -693,139 +693,139 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B13" t="n">
-        <v>227.2402818845937</v>
+        <v>201.6546729869542</v>
       </c>
       <c r="C13" t="n">
-        <v>138.0298713771851</v>
+        <v>103.2423476654302</v>
       </c>
       <c r="D13" t="n">
-        <v>322.8046179158695</v>
+        <v>294.1581197587242</v>
       </c>
       <c r="E13" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B14" t="n">
-        <v>243.0448246785456</v>
+        <v>220.0289652924109</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1179802623197</v>
+        <v>121.6496995512708</v>
       </c>
       <c r="D14" t="n">
-        <v>329.5640491237937</v>
+        <v>303.6158861319147</v>
       </c>
       <c r="E14" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B15" t="n">
-        <v>250.1918971279777</v>
+        <v>243.2142036679074</v>
       </c>
       <c r="C15" t="n">
-        <v>162.3612324000836</v>
+        <v>156.4243002267594</v>
       </c>
       <c r="D15" t="n">
-        <v>345.3165436880435</v>
+        <v>331.6535523356764</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B16" t="n">
-        <v>240.3169009957586</v>
+        <v>254.3160397904805</v>
       </c>
       <c r="C16" t="n">
-        <v>154.3518410517297</v>
+        <v>162.6585931414268</v>
       </c>
       <c r="D16" t="n">
-        <v>328.3114993199748</v>
+        <v>342.0332352960904</v>
       </c>
       <c r="E16" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="B17" t="n">
-        <v>237.37716482206</v>
+        <v>241.0912632630983</v>
       </c>
       <c r="C17" t="n">
-        <v>144.1919877590526</v>
+        <v>155.3035106702179</v>
       </c>
       <c r="D17" t="n">
-        <v>332.0040867414888</v>
+        <v>331.5462935277486</v>
       </c>
       <c r="E17" t="n">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>120.9953592700228</v>
+        <v>236.6875736693012</v>
       </c>
       <c r="C18" t="n">
-        <v>34.1394200034151</v>
+        <v>140.5515323839244</v>
       </c>
       <c r="D18" t="n">
-        <v>208.395053556653</v>
+        <v>323.6706189036628</v>
       </c>
       <c r="E18" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B19" t="n">
-        <v>215.9043324851473</v>
+        <v>128.608949161051</v>
       </c>
       <c r="C19" t="n">
-        <v>127.0348554717692</v>
+        <v>40.34703344300222</v>
       </c>
       <c r="D19" t="n">
-        <v>304.1719459642732</v>
+        <v>218.9904429645452</v>
       </c>
       <c r="E19" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>44957</v>
@@ -833,59 +833,59 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>196.9230591204375</v>
+        <v>215.5306969031905</v>
       </c>
       <c r="C20" t="n">
-        <v>109.0199662077227</v>
+        <v>124.2896340211662</v>
       </c>
       <c r="D20" t="n">
-        <v>287.581557299986</v>
+        <v>303.5346537818621</v>
       </c>
       <c r="E20" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B21" t="n">
-        <v>134.9225482217716</v>
+        <v>197.7543185908189</v>
       </c>
       <c r="C21" t="n">
-        <v>38.61510944389845</v>
+        <v>111.0018908052149</v>
       </c>
       <c r="D21" t="n">
-        <v>220.9179875008265</v>
+        <v>288.3581457044924</v>
       </c>
       <c r="E21" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>234.870011438897</v>
+        <v>130.6186730806645</v>
       </c>
       <c r="C22" t="n">
-        <v>148.3889575818895</v>
+        <v>40.32585648821626</v>
       </c>
       <c r="D22" t="n">
-        <v>327.2750068420804</v>
+        <v>216.3667709198709</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>44978</v>
@@ -893,39 +893,39 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>131.2623756231092</v>
+        <v>232.6282735921838</v>
       </c>
       <c r="C23" t="n">
-        <v>37.61235966120145</v>
+        <v>142.9829753494723</v>
       </c>
       <c r="D23" t="n">
-        <v>218.7900641462452</v>
+        <v>319.9213806000786</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B24" t="n">
-        <v>257.00518617401</v>
+        <v>138.7504708195767</v>
       </c>
       <c r="C24" t="n">
-        <v>162.5305766282218</v>
+        <v>52.6385729297453</v>
       </c>
       <c r="D24" t="n">
-        <v>346.9900948836411</v>
+        <v>220.9184552666483</v>
       </c>
       <c r="E24" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44985</v>
@@ -933,22 +933,22 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>269.719299011986</v>
+        <v>257.4127547703843</v>
       </c>
       <c r="C25" t="n">
-        <v>188.0130553098876</v>
+        <v>173.7931047728867</v>
       </c>
       <c r="D25" t="n">
-        <v>358.8164365553423</v>
+        <v>349.5421625622965</v>
       </c>
       <c r="E25" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26">
@@ -956,13 +956,13 @@
         <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>200.3528400179472</v>
+        <v>205.6649103261872</v>
       </c>
       <c r="C26" t="n">
-        <v>103.8720819092556</v>
+        <v>119.3487718308636</v>
       </c>
       <c r="D26" t="n">
-        <v>290.8715820578375</v>
+        <v>302.5082072834884</v>
       </c>
       <c r="E26" t="n">
         <v>360</v>
@@ -976,13 +976,13 @@
         <v>45020</v>
       </c>
       <c r="B27" t="n">
-        <v>231.6263778640885</v>
+        <v>228.5263264171895</v>
       </c>
       <c r="C27" t="n">
-        <v>134.8994903302995</v>
+        <v>136.1183539694568</v>
       </c>
       <c r="D27" t="n">
-        <v>322.9199451054277</v>
+        <v>314.6569367368919</v>
       </c>
       <c r="E27" t="n">
         <v>160</v>
@@ -996,13 +996,13 @@
         <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>285.8424586142669</v>
+        <v>282.2845177698754</v>
       </c>
       <c r="C28" t="n">
-        <v>194.445581464768</v>
+        <v>198.2236404320662</v>
       </c>
       <c r="D28" t="n">
-        <v>375.743562516276</v>
+        <v>369.8383874325756</v>
       </c>
       <c r="E28" t="n">
         <v>210</v>
@@ -1016,13 +1016,13 @@
         <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>324.1692208281311</v>
+        <v>342.7705215247239</v>
       </c>
       <c r="C29" t="n">
-        <v>236.2728516998388</v>
+        <v>256.0076052948075</v>
       </c>
       <c r="D29" t="n">
-        <v>415.395160606288</v>
+        <v>437.5667390092246</v>
       </c>
       <c r="E29" t="n">
         <v>540</v>
@@ -1036,13 +1036,13 @@
         <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>371.7093130025903</v>
+        <v>395.7177124516306</v>
       </c>
       <c r="C30" t="n">
-        <v>277.9670386389435</v>
+        <v>299.5950201328953</v>
       </c>
       <c r="D30" t="n">
-        <v>466.2709528104072</v>
+        <v>486.8394091799669</v>
       </c>
       <c r="E30" t="n">
         <v>420</v>
@@ -1056,13 +1056,13 @@
         <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>271.2946165026369</v>
+        <v>286.7427816770515</v>
       </c>
       <c r="C31" t="n">
-        <v>177.8430124690246</v>
+        <v>198.6207735130053</v>
       </c>
       <c r="D31" t="n">
-        <v>362.7681940548749</v>
+        <v>380.8475314843067</v>
       </c>
       <c r="E31" t="n">
         <v>380</v>
@@ -1076,13 +1076,13 @@
         <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>179.2029223531957</v>
+        <v>181.4798116390573</v>
       </c>
       <c r="C32" t="n">
-        <v>90.73779926472328</v>
+        <v>83.6726394284825</v>
       </c>
       <c r="D32" t="n">
-        <v>274.9265666104808</v>
+        <v>274.7276511773397</v>
       </c>
       <c r="E32" t="n">
         <v>70</v>
@@ -1157,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2448.210599776714</v>
+        <v>2780.538835877844</v>
       </c>
       <c r="C2" t="n">
-        <v>49.47939570949421</v>
+        <v>52.73081486074194</v>
       </c>
       <c r="D2" t="n">
-        <v>44.11785687320805</v>
+        <v>47.44713423550661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6232877335915797</v>
+        <v>0.6700524274974823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6145701059906498</v>
+        <v>0.6056790565195642</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5065755820346307</v>
+        <v>0.5031022081390445</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1183,22 +1183,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>16860.62810990886</v>
+        <v>14077.56231470765</v>
       </c>
       <c r="C3" t="n">
-        <v>129.8484813538797</v>
+        <v>118.6489035545953</v>
       </c>
       <c r="D3" t="n">
-        <v>99.77606004196804</v>
+        <v>89.39525987227172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4503790763426198</v>
+        <v>0.4104006422228783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.328162867340226</v>
+        <v>0.365239774954215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4662211965948085</v>
+        <v>0.389042723043731</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1209,25 +1209,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6526.232022496348</v>
+        <v>6042.973296842169</v>
       </c>
       <c r="C4" t="n">
-        <v>80.78509777487645</v>
+        <v>77.73656344888272</v>
       </c>
       <c r="D4" t="n">
-        <v>67.51694459947119</v>
+        <v>64.86474299876068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3613726556128893</v>
+        <v>0.3512006364398757</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2729748081200174</v>
+        <v>0.2570193551775581</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3162355320164894</v>
+        <v>0.3112159820550102</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,139 +473,139 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44831</v>
+        <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>199.2006802089686</v>
+        <v>149.5162619243449</v>
       </c>
       <c r="C2" t="n">
-        <v>107.0092772612944</v>
+        <v>52.14661598403676</v>
       </c>
       <c r="D2" t="n">
-        <v>290.5229758357647</v>
+        <v>238.5381471914059</v>
       </c>
       <c r="E2" t="n">
         <v>120</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44824</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B3" t="n">
+        <v>135.2865275766549</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49.01728857170314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>219.4955746750895</v>
+      </c>
+      <c r="E3" t="n">
+        <v>210</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44838</v>
-      </c>
-      <c r="B3" t="n">
-        <v>152.2349973511566</v>
-      </c>
-      <c r="C3" t="n">
-        <v>58.36829448295828</v>
-      </c>
-      <c r="D3" t="n">
-        <v>249.7522758732809</v>
-      </c>
-      <c r="E3" t="n">
-        <v>120</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B4" t="n">
+        <v>155.6696294092734</v>
+      </c>
+      <c r="C4" t="n">
+        <v>63.17257127137869</v>
+      </c>
+      <c r="D4" t="n">
+        <v>243.7617615419497</v>
+      </c>
+      <c r="E4" t="n">
+        <v>260</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B4" t="n">
-        <v>135.557688764359</v>
-      </c>
-      <c r="C4" t="n">
-        <v>45.87753045424903</v>
-      </c>
-      <c r="D4" t="n">
-        <v>227.2306292133667</v>
-      </c>
-      <c r="E4" t="n">
-        <v>210</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B5" t="n">
+        <v>175.7112412379807</v>
+      </c>
+      <c r="C5" t="n">
+        <v>89.24181314172047</v>
+      </c>
+      <c r="D5" t="n">
+        <v>268.4520803659875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>160</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B5" t="n">
-        <v>155.8500558403238</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66.50964206525401</v>
-      </c>
-      <c r="D5" t="n">
-        <v>248.1996155339872</v>
-      </c>
-      <c r="E5" t="n">
-        <v>260</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89.84891376846127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.02848390271212188</v>
+      </c>
+      <c r="D6" t="n">
+        <v>178.6973176652527</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B6" t="n">
-        <v>175.5262364127123</v>
-      </c>
-      <c r="C6" t="n">
-        <v>83.42093037470396</v>
-      </c>
-      <c r="D6" t="n">
-        <v>263.1734308244828</v>
-      </c>
-      <c r="E6" t="n">
-        <v>160</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B7" t="n">
-        <v>96.49083309396751</v>
+        <v>55.99096255961947</v>
       </c>
       <c r="C7" t="n">
-        <v>3.438679098677611</v>
+        <v>-36.08637476501281</v>
       </c>
       <c r="D7" t="n">
-        <v>187.9565195767723</v>
+        <v>144.4461987638491</v>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B8" t="n">
-        <v>56.33213303354399</v>
+        <v>152.0844977585101</v>
       </c>
       <c r="C8" t="n">
-        <v>-31.35676091018383</v>
+        <v>62.91764323905838</v>
       </c>
       <c r="D8" t="n">
-        <v>146.3798994477676</v>
+        <v>237.7764804359146</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>44866</v>
@@ -613,62 +613,62 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B9" t="n">
+        <v>172.0631381814337</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81.9287126633082</v>
+      </c>
+      <c r="D9" t="n">
+        <v>258.4300426231438</v>
+      </c>
+      <c r="E9" t="n">
+        <v>290</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B9" t="n">
-        <v>152.5345023984078</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50.86043921036779</v>
-      </c>
-      <c r="D9" t="n">
-        <v>242.3467257605553</v>
-      </c>
-      <c r="E9" t="n">
-        <v>200</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B10" t="n">
+        <v>194.1868550864953</v>
+      </c>
+      <c r="C10" t="n">
+        <v>107.0865219089525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>284.8560667194955</v>
+      </c>
+      <c r="E10" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B10" t="n">
-        <v>171.3333042323013</v>
-      </c>
-      <c r="C10" t="n">
-        <v>79.9346997568387</v>
-      </c>
-      <c r="D10" t="n">
-        <v>262.7556396617694</v>
-      </c>
-      <c r="E10" t="n">
-        <v>290</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B11" t="n">
+        <v>202.9959278539468</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112.2218272788441</v>
+      </c>
+      <c r="D11" t="n">
+        <v>292.1581376883502</v>
+      </c>
+      <c r="E11" t="n">
+        <v>90</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B11" t="n">
-        <v>192.3399740454338</v>
-      </c>
-      <c r="C11" t="n">
-        <v>105.0691477281589</v>
-      </c>
-      <c r="D11" t="n">
-        <v>285.9759679381141</v>
-      </c>
-      <c r="E11" t="n">
-        <v>200</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="12">
@@ -676,13 +676,13 @@
         <v>44897</v>
       </c>
       <c r="B12" t="n">
-        <v>101.2387500050572</v>
+        <v>90.1946690855532</v>
       </c>
       <c r="C12" t="n">
-        <v>9.911035955953855</v>
+        <v>-6.079970947492714</v>
       </c>
       <c r="D12" t="n">
-        <v>190.4996617788387</v>
+        <v>177.7179150577092</v>
       </c>
       <c r="E12" t="n">
         <v>120</v>
@@ -696,13 +696,13 @@
         <v>44901</v>
       </c>
       <c r="B13" t="n">
-        <v>201.6546729869542</v>
+        <v>188.4430378074824</v>
       </c>
       <c r="C13" t="n">
-        <v>103.2423476654302</v>
+        <v>97.94853325228648</v>
       </c>
       <c r="D13" t="n">
-        <v>294.1581197587242</v>
+        <v>283.7590657822761</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -716,13 +716,13 @@
         <v>44908</v>
       </c>
       <c r="B14" t="n">
-        <v>220.0289652924109</v>
+        <v>214.6734331313704</v>
       </c>
       <c r="C14" t="n">
-        <v>121.6496995512708</v>
+        <v>126.4093536345926</v>
       </c>
       <c r="D14" t="n">
-        <v>303.6158861319147</v>
+        <v>307.1879745153222</v>
       </c>
       <c r="E14" t="n">
         <v>290</v>
@@ -736,13 +736,13 @@
         <v>44915</v>
       </c>
       <c r="B15" t="n">
-        <v>243.2142036679074</v>
+        <v>247.0476076346501</v>
       </c>
       <c r="C15" t="n">
-        <v>156.4243002267594</v>
+        <v>160.7354420458103</v>
       </c>
       <c r="D15" t="n">
-        <v>331.6535523356764</v>
+        <v>339.9002505691131</v>
       </c>
       <c r="E15" t="n">
         <v>220</v>
@@ -756,13 +756,13 @@
         <v>44922</v>
       </c>
       <c r="B16" t="n">
-        <v>254.3160397904805</v>
+        <v>264.5074262042948</v>
       </c>
       <c r="C16" t="n">
-        <v>162.6585931414268</v>
+        <v>174.6973675329342</v>
       </c>
       <c r="D16" t="n">
-        <v>342.0332352960904</v>
+        <v>353.9777526250745</v>
       </c>
       <c r="E16" t="n">
         <v>130</v>
@@ -776,13 +776,13 @@
         <v>44929</v>
       </c>
       <c r="B17" t="n">
-        <v>241.0912632630983</v>
+        <v>251.0393039149513</v>
       </c>
       <c r="C17" t="n">
-        <v>155.3035106702179</v>
+        <v>163.0930646991854</v>
       </c>
       <c r="D17" t="n">
-        <v>331.5462935277486</v>
+        <v>334.736166464255</v>
       </c>
       <c r="E17" t="n">
         <v>240</v>
@@ -796,13 +796,13 @@
         <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>236.6875736693012</v>
+        <v>235.4813168372373</v>
       </c>
       <c r="C18" t="n">
-        <v>140.5515323839244</v>
+        <v>146.2562820045908</v>
       </c>
       <c r="D18" t="n">
-        <v>323.6706189036628</v>
+        <v>324.2085490855241</v>
       </c>
       <c r="E18" t="n">
         <v>290</v>
@@ -813,39 +813,39 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B19" t="n">
-        <v>128.608949161051</v>
+        <v>230.089371515071</v>
       </c>
       <c r="C19" t="n">
-        <v>40.34703344300222</v>
+        <v>143.2769310743958</v>
       </c>
       <c r="D19" t="n">
-        <v>218.9904429645452</v>
+        <v>318.5045738606501</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B20" t="n">
-        <v>215.5306969031905</v>
+        <v>107.2608314085117</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2896340211662</v>
+        <v>11.25416689217946</v>
       </c>
       <c r="D20" t="n">
-        <v>303.5346537818621</v>
+        <v>202.4299654539128</v>
       </c>
       <c r="E20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44957</v>
@@ -853,59 +853,59 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B21" t="n">
-        <v>197.7543185908189</v>
+        <v>195.8883954592303</v>
       </c>
       <c r="C21" t="n">
-        <v>111.0018908052149</v>
+        <v>105.9720452656967</v>
       </c>
       <c r="D21" t="n">
-        <v>288.3581457044924</v>
+        <v>286.2573159765302</v>
       </c>
       <c r="E21" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B22" t="n">
-        <v>130.6186730806645</v>
+        <v>190.2960764237583</v>
       </c>
       <c r="C22" t="n">
-        <v>40.32585648821626</v>
+        <v>107.5915186991729</v>
       </c>
       <c r="D22" t="n">
-        <v>216.3667709198709</v>
+        <v>283.858665576916</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B23" t="n">
-        <v>232.6282735921838</v>
+        <v>127.3359190037633</v>
       </c>
       <c r="C23" t="n">
-        <v>142.9829753494723</v>
+        <v>37.71053529205823</v>
       </c>
       <c r="D23" t="n">
-        <v>319.9213806000786</v>
+        <v>216.5826192331936</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44978</v>
@@ -913,39 +913,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>138.7504708195767</v>
+        <v>229.1950644121628</v>
       </c>
       <c r="C24" t="n">
-        <v>52.6385729297453</v>
+        <v>143.0917702575472</v>
       </c>
       <c r="D24" t="n">
-        <v>220.9184552666483</v>
+        <v>320.0590605267754</v>
       </c>
       <c r="E24" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B25" t="n">
-        <v>257.4127547703843</v>
+        <v>135.9299117702106</v>
       </c>
       <c r="C25" t="n">
-        <v>173.7931047728867</v>
+        <v>44.33125972686621</v>
       </c>
       <c r="D25" t="n">
-        <v>349.5421625622965</v>
+        <v>226.4751872730527</v>
       </c>
       <c r="E25" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>44985</v>
@@ -953,141 +953,161 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45013</v>
+        <v>44992</v>
       </c>
       <c r="B26" t="n">
-        <v>205.6649103261872</v>
+        <v>250.0703751206958</v>
       </c>
       <c r="C26" t="n">
-        <v>119.3487718308636</v>
+        <v>157.6835431648464</v>
       </c>
       <c r="D26" t="n">
-        <v>302.5082072834884</v>
+        <v>335.075387860299</v>
       </c>
       <c r="E26" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45006</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B27" t="n">
-        <v>228.5263264171895</v>
+        <v>201.4841038062231</v>
       </c>
       <c r="C27" t="n">
-        <v>136.1183539694568</v>
+        <v>113.5661096879738</v>
       </c>
       <c r="D27" t="n">
-        <v>314.6569367368919</v>
+        <v>294.2783768032214</v>
       </c>
       <c r="E27" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B28" t="n">
-        <v>282.2845177698754</v>
+        <v>222.1423256861715</v>
       </c>
       <c r="C28" t="n">
-        <v>198.2236404320662</v>
+        <v>128.9540259467561</v>
       </c>
       <c r="D28" t="n">
-        <v>369.8383874325756</v>
+        <v>315.0202633291298</v>
       </c>
       <c r="E28" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B29" t="n">
-        <v>342.7705215247239</v>
+        <v>274.9252957384759</v>
       </c>
       <c r="C29" t="n">
-        <v>256.0076052948075</v>
+        <v>184.3791568175106</v>
       </c>
       <c r="D29" t="n">
-        <v>437.5667390092246</v>
+        <v>367.0976447580126</v>
       </c>
       <c r="E29" t="n">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>395.7177124516306</v>
+        <v>344.7098042579499</v>
       </c>
       <c r="C30" t="n">
-        <v>299.5950201328953</v>
+        <v>253.5560622379888</v>
       </c>
       <c r="D30" t="n">
-        <v>486.8394091799669</v>
+        <v>430.6656489300434</v>
       </c>
       <c r="E30" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>286.7427816770515</v>
+        <v>397.0909812232777</v>
       </c>
       <c r="C31" t="n">
-        <v>198.6207735130053</v>
+        <v>300.6356717624361</v>
       </c>
       <c r="D31" t="n">
-        <v>380.8475314843067</v>
+        <v>493.2271354721273</v>
       </c>
       <c r="E31" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B32" t="n">
+        <v>283.610943553415</v>
+      </c>
+      <c r="C32" t="n">
+        <v>192.0524181905676</v>
+      </c>
+      <c r="D32" t="n">
+        <v>376.8702092617174</v>
+      </c>
+      <c r="E32" t="n">
+        <v>380</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B32" t="n">
-        <v>181.4798116390573</v>
-      </c>
-      <c r="C32" t="n">
-        <v>83.6726394284825</v>
-      </c>
-      <c r="D32" t="n">
-        <v>274.7276511773397</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="B33" t="n">
+        <v>175.0215159505267</v>
+      </c>
+      <c r="C33" t="n">
+        <v>76.3571724132501</v>
+      </c>
+      <c r="D33" t="n">
+        <v>264.8908904316806</v>
+      </c>
+      <c r="E33" t="n">
         <v>70</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F33" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1157,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2780.538835877844</v>
+        <v>2299.673359306595</v>
       </c>
       <c r="C2" t="n">
-        <v>52.73081486074194</v>
+        <v>47.95490964756992</v>
       </c>
       <c r="D2" t="n">
-        <v>47.44713423550661</v>
+        <v>44.25127788338741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6700524274974823</v>
+        <v>0.6060130181140182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6056790565195642</v>
+        <v>0.4550878926660864</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5031022081390445</v>
+        <v>0.4862456165896316</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1183,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>14077.56231470765</v>
+        <v>13782.34063773884</v>
       </c>
       <c r="C3" t="n">
-        <v>118.6489035545953</v>
+        <v>117.3982139461195</v>
       </c>
       <c r="D3" t="n">
-        <v>89.39525987227172</v>
+        <v>89.8975199523254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4104006422228783</v>
+        <v>0.4063068602256445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.365239774954215</v>
+        <v>0.2512590519294894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.389042723043731</v>
+        <v>0.4050280336314271</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1209,25 +1229,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>6042.973296842169</v>
+        <v>7733.359880337802</v>
       </c>
       <c r="C4" t="n">
-        <v>77.73656344888272</v>
+        <v>87.93952399426439</v>
       </c>
       <c r="D4" t="n">
-        <v>64.86474299876068</v>
+        <v>73.03448122790071</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3512006364398757</v>
+        <v>0.554993888730421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2570193551775581</v>
+        <v>0.2597467823056193</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3112159820550102</v>
+        <v>0.3741024722566924</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.6000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
+++ b/modelos/OBACAC4431094/OBACAC4431094_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>44838</v>
       </c>
       <c r="B2" t="n">
-        <v>149.5162619243449</v>
+        <v>174.8359154815311</v>
       </c>
       <c r="C2" t="n">
-        <v>52.14661598403676</v>
+        <v>82.9914527979461</v>
       </c>
       <c r="D2" t="n">
-        <v>238.5381471914059</v>
+        <v>271.2178878104605</v>
       </c>
       <c r="E2" t="n">
         <v>120</v>
@@ -496,13 +496,13 @@
         <v>44845</v>
       </c>
       <c r="B3" t="n">
-        <v>135.2865275766549</v>
+        <v>142.2743294071698</v>
       </c>
       <c r="C3" t="n">
-        <v>49.01728857170314</v>
+        <v>55.12615796167299</v>
       </c>
       <c r="D3" t="n">
-        <v>219.4955746750895</v>
+        <v>230.2049985358487</v>
       </c>
       <c r="E3" t="n">
         <v>210</v>
@@ -516,13 +516,13 @@
         <v>44852</v>
       </c>
       <c r="B4" t="n">
-        <v>155.6696294092734</v>
+        <v>151.1870138665312</v>
       </c>
       <c r="C4" t="n">
-        <v>63.17257127137869</v>
+        <v>62.24041361347838</v>
       </c>
       <c r="D4" t="n">
-        <v>243.7617615419497</v>
+        <v>239.6207023432447</v>
       </c>
       <c r="E4" t="n">
         <v>260</v>
@@ -536,13 +536,13 @@
         <v>44859</v>
       </c>
       <c r="B5" t="n">
-        <v>175.7112412379807</v>
+        <v>172.2203541332766</v>
       </c>
       <c r="C5" t="n">
-        <v>89.24181314172047</v>
+        <v>84.6462593371475</v>
       </c>
       <c r="D5" t="n">
-        <v>268.4520803659875</v>
+        <v>264.5817022909254</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -556,13 +556,13 @@
         <v>44865</v>
       </c>
       <c r="B6" t="n">
-        <v>89.84891376846127</v>
+        <v>97.73106252686028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02848390271212188</v>
+        <v>5.613925655303852</v>
       </c>
       <c r="D6" t="n">
-        <v>178.6973176652527</v>
+        <v>190.485517944976</v>
       </c>
       <c r="E6" t="n">
         <v>120</v>
@@ -576,13 +576,13 @@
         <v>44869</v>
       </c>
       <c r="B7" t="n">
-        <v>55.99096255961947</v>
+        <v>62.25470706120884</v>
       </c>
       <c r="C7" t="n">
-        <v>-36.08637476501281</v>
+        <v>-29.72932110369304</v>
       </c>
       <c r="D7" t="n">
-        <v>144.4461987638491</v>
+        <v>155.6640008315286</v>
       </c>
       <c r="E7" t="n">
         <v>90</v>
@@ -596,13 +596,13 @@
         <v>44873</v>
       </c>
       <c r="B8" t="n">
-        <v>152.0844977585101</v>
+        <v>155.7440636575652</v>
       </c>
       <c r="C8" t="n">
-        <v>62.91764323905838</v>
+        <v>60.41069414349391</v>
       </c>
       <c r="D8" t="n">
-        <v>237.7764804359146</v>
+        <v>242.7953493768187</v>
       </c>
       <c r="E8" t="n">
         <v>200</v>
@@ -616,13 +616,13 @@
         <v>44880</v>
       </c>
       <c r="B9" t="n">
-        <v>172.0631381814337</v>
+        <v>167.5680494675939</v>
       </c>
       <c r="C9" t="n">
-        <v>81.9287126633082</v>
+        <v>80.10335730418065</v>
       </c>
       <c r="D9" t="n">
-        <v>258.4300426231438</v>
+        <v>258.686759011845</v>
       </c>
       <c r="E9" t="n">
         <v>290</v>
@@ -636,13 +636,13 @@
         <v>44887</v>
       </c>
       <c r="B10" t="n">
-        <v>194.1868550864953</v>
+        <v>190.0727022515198</v>
       </c>
       <c r="C10" t="n">
-        <v>107.0865219089525</v>
+        <v>99.00792034111608</v>
       </c>
       <c r="D10" t="n">
-        <v>284.8560667194955</v>
+        <v>283.1483851641559</v>
       </c>
       <c r="E10" t="n">
         <v>200</v>
@@ -653,39 +653,39 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B11" t="n">
+        <v>110.3006939867844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.68427399970717</v>
+      </c>
+      <c r="D11" t="n">
+        <v>205.8734235003403</v>
+      </c>
+      <c r="E11" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B11" t="n">
-        <v>202.9959278539468</v>
-      </c>
-      <c r="C11" t="n">
-        <v>112.2218272788441</v>
-      </c>
-      <c r="D11" t="n">
-        <v>292.1581376883502</v>
-      </c>
-      <c r="E11" t="n">
-        <v>90</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B12" t="n">
-        <v>90.1946690855532</v>
+        <v>207.9530967505873</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.079970947492714</v>
+        <v>117.0465402280183</v>
       </c>
       <c r="D12" t="n">
-        <v>177.7179150577092</v>
+        <v>299.976264716082</v>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44894</v>
@@ -693,159 +693,159 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B13" t="n">
+        <v>218.9646625581515</v>
+      </c>
+      <c r="C13" t="n">
+        <v>129.8517675526048</v>
+      </c>
+      <c r="D13" t="n">
+        <v>311.6336926125573</v>
+      </c>
+      <c r="E13" t="n">
+        <v>290</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B13" t="n">
-        <v>188.4430378074824</v>
-      </c>
-      <c r="C13" t="n">
-        <v>97.94853325228648</v>
-      </c>
-      <c r="D13" t="n">
-        <v>283.7590657822761</v>
-      </c>
-      <c r="E13" t="n">
-        <v>300</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B14" t="n">
+        <v>230.8294318519783</v>
+      </c>
+      <c r="C14" t="n">
+        <v>133.4614028292085</v>
+      </c>
+      <c r="D14" t="n">
+        <v>319.5590239304666</v>
+      </c>
+      <c r="E14" t="n">
+        <v>220</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B14" t="n">
-        <v>214.6734331313704</v>
-      </c>
-      <c r="C14" t="n">
-        <v>126.4093536345926</v>
-      </c>
-      <c r="D14" t="n">
-        <v>307.1879745153222</v>
-      </c>
-      <c r="E14" t="n">
-        <v>290</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B15" t="n">
+        <v>234.2584594122465</v>
+      </c>
+      <c r="C15" t="n">
+        <v>145.6312472674532</v>
+      </c>
+      <c r="D15" t="n">
+        <v>324.7143176358859</v>
+      </c>
+      <c r="E15" t="n">
+        <v>130</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44915</v>
-      </c>
-      <c r="B15" t="n">
-        <v>247.0476076346501</v>
-      </c>
-      <c r="C15" t="n">
-        <v>160.7354420458103</v>
-      </c>
-      <c r="D15" t="n">
-        <v>339.9002505691131</v>
-      </c>
-      <c r="E15" t="n">
-        <v>220</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B16" t="n">
+        <v>224.6148466660583</v>
+      </c>
+      <c r="C16" t="n">
+        <v>140.6615984658805</v>
+      </c>
+      <c r="D16" t="n">
+        <v>319.144067896356</v>
+      </c>
+      <c r="E16" t="n">
+        <v>240</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B16" t="n">
-        <v>264.5074262042948</v>
-      </c>
-      <c r="C16" t="n">
-        <v>174.6973675329342</v>
-      </c>
-      <c r="D16" t="n">
-        <v>353.9777526250745</v>
-      </c>
-      <c r="E16" t="n">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44929</v>
+        <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>251.0393039149513</v>
+        <v>239.6869931420626</v>
       </c>
       <c r="C17" t="n">
-        <v>163.0930646991854</v>
+        <v>148.3738595383624</v>
       </c>
       <c r="D17" t="n">
-        <v>334.736166464255</v>
+        <v>332.4642785362695</v>
       </c>
       <c r="E17" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44922</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B18" t="n">
+        <v>232.1031536484041</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144.1257064902569</v>
+      </c>
+      <c r="D18" t="n">
+        <v>321.6570720702182</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B18" t="n">
-        <v>235.4813168372373</v>
-      </c>
-      <c r="C18" t="n">
-        <v>146.2562820045908</v>
-      </c>
-      <c r="D18" t="n">
-        <v>324.2085490855241</v>
-      </c>
-      <c r="E18" t="n">
-        <v>290</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B19" t="n">
+        <v>108.5435754157142</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.09304994669172</v>
+      </c>
+      <c r="D19" t="n">
+        <v>201.1275697980393</v>
+      </c>
+      <c r="E19" t="n">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B19" t="n">
-        <v>230.089371515071</v>
-      </c>
-      <c r="C19" t="n">
-        <v>143.2769310743958</v>
-      </c>
-      <c r="D19" t="n">
-        <v>318.5045738606501</v>
-      </c>
-      <c r="E19" t="n">
-        <v>40</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>107.2608314085117</v>
+        <v>195.661017468283</v>
       </c>
       <c r="C20" t="n">
-        <v>11.25416689217946</v>
+        <v>104.1750607590259</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4299654539128</v>
+        <v>288.0382706174875</v>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44957</v>
@@ -853,59 +853,59 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B21" t="n">
+        <v>192.0638494067264</v>
+      </c>
+      <c r="C21" t="n">
+        <v>103.2924810232517</v>
+      </c>
+      <c r="D21" t="n">
+        <v>282.4303178569724</v>
+      </c>
+      <c r="E21" t="n">
+        <v>200</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B21" t="n">
-        <v>195.8883954592303</v>
-      </c>
-      <c r="C21" t="n">
-        <v>105.9720452656967</v>
-      </c>
-      <c r="D21" t="n">
-        <v>286.2573159765302</v>
-      </c>
-      <c r="E21" t="n">
-        <v>210</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>190.2960764237583</v>
+        <v>130.2157796694983</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5915186991729</v>
+        <v>46.9316470823613</v>
       </c>
       <c r="D22" t="n">
-        <v>283.858665576916</v>
+        <v>224.4473591984723</v>
       </c>
       <c r="E22" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>127.3359190037633</v>
+        <v>230.9936830485989</v>
       </c>
       <c r="C23" t="n">
-        <v>37.71053529205823</v>
+        <v>145.9085259551266</v>
       </c>
       <c r="D23" t="n">
-        <v>216.5826192331936</v>
+        <v>319.8198888232816</v>
       </c>
       <c r="E23" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44978</v>
@@ -913,39 +913,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B24" t="n">
+        <v>137.7950345557951</v>
+      </c>
+      <c r="C24" t="n">
+        <v>47.36963623964557</v>
+      </c>
+      <c r="D24" t="n">
+        <v>234.4772825680429</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B24" t="n">
-        <v>229.1950644121628</v>
-      </c>
-      <c r="C24" t="n">
-        <v>143.0917702575472</v>
-      </c>
-      <c r="D24" t="n">
-        <v>320.0590605267754</v>
-      </c>
-      <c r="E24" t="n">
-        <v>130</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>135.9299117702106</v>
+        <v>251.0054665260143</v>
       </c>
       <c r="C25" t="n">
-        <v>44.33125972686621</v>
+        <v>163.2357691319477</v>
       </c>
       <c r="D25" t="n">
-        <v>226.4751872730527</v>
+        <v>338.1155449400778</v>
       </c>
       <c r="E25" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>44985</v>
@@ -953,161 +953,141 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44992</v>
+        <v>45013</v>
       </c>
       <c r="B26" t="n">
-        <v>250.0703751206958</v>
+        <v>204.1897844537902</v>
       </c>
       <c r="C26" t="n">
-        <v>157.6835431648464</v>
+        <v>116.7325229699827</v>
       </c>
       <c r="D26" t="n">
-        <v>335.075387860299</v>
+        <v>293.6915228236129</v>
       </c>
       <c r="E26" t="n">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44985</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B27" t="n">
+        <v>227.5197130904452</v>
+      </c>
+      <c r="C27" t="n">
+        <v>137.7101904232134</v>
+      </c>
+      <c r="D27" t="n">
+        <v>322.1166224385348</v>
+      </c>
+      <c r="E27" t="n">
+        <v>160</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B27" t="n">
-        <v>201.4841038062231</v>
-      </c>
-      <c r="C27" t="n">
-        <v>113.5661096879738</v>
-      </c>
-      <c r="D27" t="n">
-        <v>294.2783768032214</v>
-      </c>
-      <c r="E27" t="n">
-        <v>360</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B28" t="n">
+        <v>281.7814723184301</v>
+      </c>
+      <c r="C28" t="n">
+        <v>190.9080575954963</v>
+      </c>
+      <c r="D28" t="n">
+        <v>369.8443464192452</v>
+      </c>
+      <c r="E28" t="n">
+        <v>210</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B28" t="n">
-        <v>222.1423256861715</v>
-      </c>
-      <c r="C28" t="n">
-        <v>128.9540259467561</v>
-      </c>
-      <c r="D28" t="n">
-        <v>315.0202633291298</v>
-      </c>
-      <c r="E28" t="n">
-        <v>160</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>274.9252957384759</v>
+        <v>344.1574841731795</v>
       </c>
       <c r="C29" t="n">
-        <v>184.3791568175106</v>
+        <v>256.1097523151854</v>
       </c>
       <c r="D29" t="n">
-        <v>367.0976447580126</v>
+        <v>425.327597231769</v>
       </c>
       <c r="E29" t="n">
-        <v>210</v>
+        <v>540</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>344.7098042579499</v>
+        <v>397.6462366819835</v>
       </c>
       <c r="C30" t="n">
-        <v>253.5560622379888</v>
+        <v>306.7058677200001</v>
       </c>
       <c r="D30" t="n">
-        <v>430.6656489300434</v>
+        <v>492.9250800938119</v>
       </c>
       <c r="E30" t="n">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B31" t="n">
+        <v>284.2897415869227</v>
+      </c>
+      <c r="C31" t="n">
+        <v>197.6177443599321</v>
+      </c>
+      <c r="D31" t="n">
+        <v>378.5711038476409</v>
+      </c>
+      <c r="E31" t="n">
+        <v>380</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B31" t="n">
-        <v>397.0909812232777</v>
-      </c>
-      <c r="C31" t="n">
-        <v>300.6356717624361</v>
-      </c>
-      <c r="D31" t="n">
-        <v>493.2271354721273</v>
-      </c>
-      <c r="E31" t="n">
-        <v>420</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>283.610943553415</v>
+        <v>176.3165956135836</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0524181905676</v>
+        <v>82.94204789726194</v>
       </c>
       <c r="D32" t="n">
-        <v>376.8702092617174</v>
+        <v>273.4763131338744</v>
       </c>
       <c r="E32" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B33" t="n">
-        <v>175.0215159505267</v>
-      </c>
-      <c r="C33" t="n">
-        <v>76.3571724132501</v>
-      </c>
-      <c r="D33" t="n">
-        <v>264.8908904316806</v>
-      </c>
-      <c r="E33" t="n">
-        <v>70</v>
-      </c>
-      <c r="F33" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1177,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2299.673359306595</v>
+        <v>2100.388106190385</v>
       </c>
       <c r="C2" t="n">
-        <v>47.95490964756992</v>
+        <v>45.82999133962808</v>
       </c>
       <c r="D2" t="n">
-        <v>44.25127788338741</v>
+        <v>38.44580223087902</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6060130181140182</v>
+        <v>0.5590787494913478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4550878926660864</v>
+        <v>0.4294517692960047</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4862456165896316</v>
+        <v>0.4167671756131786</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1203,22 +1183,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>13782.34063773884</v>
+        <v>13650.19489591715</v>
       </c>
       <c r="C3" t="n">
-        <v>117.3982139461195</v>
+        <v>116.8340485300289</v>
       </c>
       <c r="D3" t="n">
-        <v>89.8975199523254</v>
+        <v>85.51908517694642</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4063068602256445</v>
+        <v>0.3691081846798008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2512590519294894</v>
+        <v>0.3626713256052232</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4050280336314271</v>
+        <v>0.3547751329076425</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666666</v>
@@ -1229,25 +1209,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7733.359880337802</v>
+        <v>7186.153051677374</v>
       </c>
       <c r="C4" t="n">
-        <v>87.93952399426439</v>
+        <v>84.77118054903667</v>
       </c>
       <c r="D4" t="n">
-        <v>73.03448122790071</v>
+        <v>69.91403852948065</v>
       </c>
       <c r="E4" t="n">
-        <v>0.554993888730421</v>
+        <v>0.5231396025485786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2597467823056193</v>
+        <v>0.2793460559592106</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3741024722566924</v>
+        <v>0.3527434382735685</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6000000000000002</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
